--- a/biology/Botanique/Calcedonio_Tropea_(botaniste)/Calcedonio_Tropea_(botaniste).xlsx
+++ b/biology/Botanique/Calcedonio_Tropea_(botaniste)/Calcedonio_Tropea_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calcedonio[Note 1] Tropea (né à  Naples en 1884 et mort à une date non connue, après 1930) est un botaniste italien.
 </t>
@@ -511,10 +523,12 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1909, Calcedonio Tropea, qui réside à Palerme, est admis comme membre de la société botanique d'Italie (it)[1]. En 1910, il est assistant (assistente) à l'institut royal de botanique de Palerme[2], puis, en 1912, adjoint (Horti adsistens) au jardin botanique royal et colonial de Palerme, dont il co-signe  le catalogue des graines offertes en échange cette année-là[3]. En 1916, il travaille à Florence à l'Istituto agricolo coloniale Italiano (it) et fait partie du comité de rédaction du mensuel L'Agricoltura Coloniale publié par l'institut.
-Il est notamment l'auteur d'un manuel sur la culture du coton, publié en 1911, et d'un article, publié en 1930, sur des expériences de culture du cotonnier en Sardaigne[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1909, Calcedonio Tropea, qui réside à Palerme, est admis comme membre de la société botanique d'Italie (it). En 1910, il est assistant (assistente) à l'institut royal de botanique de Palerme, puis, en 1912, adjoint (Horti adsistens) au jardin botanique royal et colonial de Palerme, dont il co-signe  le catalogue des graines offertes en échange cette année-là. En 1916, il travaille à Florence à l'Istituto agricolo coloniale Italiano (it) et fait partie du comité de rédaction du mensuel L'Agricoltura Coloniale publié par l'institut.
+Il est notamment l'auteur d'un manuel sur la culture du coton, publié en 1911, et d'un article, publié en 1930, sur des expériences de culture du cotonnier en Sardaigne.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) Calcedonio Tropea, « Vicia saxatilis (Vent.) Tropea », Malpighia, vol. 21,‎ 1907, p. 4.
 (it) Calcedonio Tropea, « Di una maniera di semplificare la costruzione dei poligoni empirici di frequenza », Contribuzioni alla Biologia Vegetale, Palermo, vol. IV, no 2,‎ 1909, p. 193-203.
